--- a/data/trans_orig/P44_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E59FAC4-0F32-4B41-B9CD-D4D8547949C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5942C7-AB76-4FE2-ADC7-871A93EC2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{354B09B1-4849-496A-9606-13AED18B801C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F343065E-5741-46B3-A65A-E1AA35FEBA7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="211">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -93,28 +93,28 @@
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>Peligroso</t>
@@ -123,451 +123,454 @@
     <t>30,64%</t>
   </si>
   <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>Sano y peligroso</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>Sano</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
     <t>27,85%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>Sano y peligroso</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>Sano</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>30,92%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>11,16%</t>
@@ -576,25 +579,25 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>12,38%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -603,9 +606,6 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
@@ -613,9 +613,6 @@
   </si>
   <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1084,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077A2F4D-BC34-42E3-B3D9-4911023E164B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4BA753-525E-4663-83F3-ED7753D04EBA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1840,10 +1837,10 @@
         <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1852,13 +1849,13 @@
         <v>8387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,7 +1911,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1932,37 +1929,37 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1974,13 @@
         <v>44316</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -1992,13 +1989,13 @@
         <v>28233</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2007,13 +2004,13 @@
         <v>72549</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2025,13 @@
         <v>139843</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -2043,13 +2040,13 @@
         <v>106792</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -2058,13 +2055,13 @@
         <v>246634</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2076,13 @@
         <v>300694</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -2094,13 +2091,13 @@
         <v>312671</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>588</v>
@@ -2109,13 +2106,13 @@
         <v>613365</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,37 +2184,37 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,7 +2390,7 @@
         <v>161</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="H27" s="7">
         <v>960</v>
@@ -2402,13 +2399,13 @@
         <v>988027</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M27" s="7">
         <v>1802</v>
@@ -2417,13 +2414,13 @@
         <v>1846733</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,13 +2435,13 @@
         <v>1874037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>1903</v>
@@ -2453,13 +2450,13 @@
         <v>1947871</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>3742</v>
@@ -2468,13 +2465,13 @@
         <v>3821908</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2486,13 @@
         <v>364687</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -2504,13 +2501,13 @@
         <v>261858</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>618</v>
@@ -2519,13 +2516,13 @@
         <v>626545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2537,13 @@
         <v>10421</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2576,7 +2573,7 @@
         <v>14</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,7 +2629,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30DB1F8-C586-4CB9-9272-72EA4C778DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15BECEE-107A-4AEA-ABD4-D01C41203E6A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2668,7 +2665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2775,10 +2772,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>64</v>
@@ -2790,10 +2787,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>64</v>
@@ -2805,10 +2802,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>64</v>
@@ -2847,22 +2844,22 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,22 +2895,22 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,22 +2946,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,22 +2997,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,22 +3048,22 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,10 +3131,10 @@
         <v>2162022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>64</v>
@@ -3146,13 +3143,13 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>64</v>
@@ -3164,10 +3161,10 @@
         <v>4411543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>64</v>
@@ -3206,22 +3203,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,22 +3254,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,22 +3305,22 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,22 +3356,22 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,22 +3407,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,7 +3449,7 @@
         <v>2921</v>
       </c>
       <c r="I17" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>64</v>
@@ -3481,7 +3478,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3493,10 +3490,10 @@
         <v>673039</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>64</v>
@@ -3508,10 +3505,10 @@
         <v>713886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>64</v>
@@ -3523,10 +3520,10 @@
         <v>1386926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>64</v>
@@ -3580,7 +3577,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3846,13 @@
         <v>3364</v>
       </c>
       <c r="D25" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>64</v>
@@ -3867,10 +3864,10 @@
         <v>3799360</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>64</v>
@@ -3879,13 +3876,13 @@
         <v>8716</v>
       </c>
       <c r="N25" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>64</v>
@@ -3924,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3939,7 +3936,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3972,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3990,7 +3987,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4041,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,7 +4074,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4092,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4143,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,7 +4152,7 @@
         <v>3364</v>
       </c>
       <c r="D31" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>64</v>
@@ -4185,7 +4182,7 @@
         <v>8716</v>
       </c>
       <c r="N31" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>64</v>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5942C7-AB76-4FE2-ADC7-871A93EC2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{467C7399-F887-451C-9A7E-BE8293F7628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F343065E-5741-46B3-A65A-E1AA35FEBA7A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2100B6A4-C3B7-4446-AE8D-FB83B434561D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="209">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -93,511 +93,499 @@
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Peligroso</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>Sano y peligroso</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>Sano</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Peligroso</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>Sano y peligroso</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>Sano</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>27,85%</t>
+    <t>27,83%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -606,13 +594,19 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,38%</t>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1081,7 +1075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4BA753-525E-4663-83F3-ED7753D04EBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69ADFCDC-6299-4E56-91F4-674CF9780C9A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1493,10 +1487,10 @@
         <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,13 +1505,13 @@
         <v>1029205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>1291</v>
@@ -1526,13 +1520,13 @@
         <v>1315113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>2327</v>
@@ -1541,18 +1535,18 @@
         <v>2344318</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1570,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1585,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1615,13 +1609,13 @@
         <v>66788</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>55</v>
@@ -1630,13 +1624,13 @@
         <v>54182</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -1645,13 +1639,13 @@
         <v>120970</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,13 +1660,13 @@
         <v>403512</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>361</v>
@@ -1681,13 +1675,13 @@
         <v>374510</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>750</v>
@@ -1696,13 +1690,13 @@
         <v>778022</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,13 +1711,13 @@
         <v>1028827</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>980</v>
@@ -1732,13 +1726,13 @@
         <v>1000504</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>1984</v>
@@ -1747,13 +1741,13 @@
         <v>2029331</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1762,13 @@
         <v>185629</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>153</v>
@@ -1783,13 +1777,13 @@
         <v>153876</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>337</v>
@@ -1798,13 +1792,13 @@
         <v>339505</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1813,13 @@
         <v>4682</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1834,13 +1828,13 @@
         <v>3705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1849,13 +1843,13 @@
         <v>8387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1864,13 @@
         <v>1689438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>1553</v>
@@ -1885,13 +1879,13 @@
         <v>1586777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>3198</v>
@@ -1900,18 +1894,18 @@
         <v>3276215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1929,37 +1923,37 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1968,13 @@
         <v>44316</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -1989,13 +1983,13 @@
         <v>28233</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2004,13 +1998,13 @@
         <v>72549</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2019,13 @@
         <v>139843</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -2040,13 +2034,13 @@
         <v>106792</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -2055,13 +2049,13 @@
         <v>246634</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2070,13 @@
         <v>300694</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -2091,13 +2085,13 @@
         <v>312671</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>588</v>
@@ -2106,13 +2100,13 @@
         <v>613365</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2121,13 @@
         <v>64963</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -2142,13 +2136,13 @@
         <v>26250</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -2157,13 +2151,13 @@
         <v>91213</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,37 +2178,37 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2223,13 @@
         <v>549815</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="7">
         <v>450</v>
@@ -2244,13 +2238,13 @@
         <v>473946</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M24" s="7">
         <v>976</v>
@@ -2259,13 +2253,13 @@
         <v>1023761</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2312,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2327,13 @@
         <v>160607</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>165</v>
@@ -2348,13 +2342,13 @@
         <v>171936</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>321</v>
@@ -2363,13 +2357,13 @@
         <v>332543</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2378,13 @@
         <v>858706</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H27" s="7">
         <v>960</v>
@@ -2399,13 +2393,13 @@
         <v>988027</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M27" s="7">
         <v>1802</v>
@@ -2414,13 +2408,13 @@
         <v>1846733</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2429,13 @@
         <v>1874037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H28" s="7">
         <v>1903</v>
@@ -2450,13 +2444,13 @@
         <v>1947871</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
         <v>3742</v>
@@ -2465,13 +2459,13 @@
         <v>3821908</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2480,13 @@
         <v>364687</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -2501,13 +2495,13 @@
         <v>261858</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>618</v>
@@ -2516,13 +2510,13 @@
         <v>626545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2531,13 @@
         <v>10421</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2552,13 +2546,13 @@
         <v>6144</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -2567,13 +2561,13 @@
         <v>16565</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2582,13 @@
         <v>3268459</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="7">
         <v>3294</v>
@@ -2603,13 +2597,13 @@
         <v>3375835</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="7">
         <v>6501</v>
@@ -2618,18 +2612,18 @@
         <v>6644294</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15BECEE-107A-4AEA-ABD4-D01C41203E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB8BDAD-37C0-49E5-91A5-691A8FA85F7A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,7 +2659,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2772,13 +2766,13 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7">
         <v>1427</v>
@@ -2787,13 +2781,13 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="7">
         <v>2118</v>
@@ -2802,13 +2796,13 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2844,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2859,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2895,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2910,7 +2904,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2946,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2961,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2997,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3012,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3048,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3063,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3072,13 @@
         <v>541634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>1427</v>
@@ -3093,13 +3087,13 @@
         <v>835953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>2118</v>
@@ -3108,18 +3102,18 @@
         <v>1377586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3131,13 +3125,13 @@
         <v>2162022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>2921</v>
@@ -3146,13 +3140,13 @@
         <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>4913</v>
@@ -3161,13 +3155,13 @@
         <v>4411543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3203,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3218,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,7 +3233,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3254,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3269,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,7 +3284,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3305,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3320,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3356,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -3371,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3386,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3407,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3422,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3431,13 @@
         <v>2162022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>2921</v>
@@ -3452,13 +3446,13 @@
         <v>2249521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>4913</v>
@@ -3467,18 +3461,18 @@
         <v>4411543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3490,13 +3484,13 @@
         <v>673039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7">
         <v>1004</v>
@@ -3505,13 +3499,13 @@
         <v>713886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
@@ -3520,13 +3514,13 @@
         <v>1386926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3577,7 +3571,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,7 +3592,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3628,7 +3622,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,7 +3643,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3679,7 +3673,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3730,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3745,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3781,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3790,13 @@
         <v>673039</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="7">
         <v>1004</v>
@@ -3811,13 +3805,13 @@
         <v>713886</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M24" s="7">
         <v>1685</v>
@@ -3826,13 +3820,13 @@
         <v>1386926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3843,13 @@
         <v>3376694</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="7">
         <v>5352</v>
@@ -3864,13 +3858,13 @@
         <v>3799360</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>8716</v>
@@ -3879,13 +3873,13 @@
         <v>7176054</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,7 +3915,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3936,7 +3930,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3966,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3987,7 +3981,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4017,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4038,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,7 +4068,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4089,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4140,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4149,13 @@
         <v>3376694</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="7">
         <v>5352</v>
@@ -4170,13 +4164,13 @@
         <v>3799360</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="7">
         <v>8716</v>
@@ -4185,18 +4179,18 @@
         <v>7176054</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0BD767E-0C8B-42BF-B36E-BE049E128552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F3110D0-20D5-47F7-A675-7ECBA5026C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB406D36-E063-4591-91F1-0079C7203AB3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A68FDE-4CF3-407E-8A15-95D54F2F3015}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D8028-6F17-4839-8D4C-0C836F728AF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF43C07-7F04-43A3-8FCE-956539B59CDC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
